--- a/Models/SBO Exports.xlsx
+++ b/Models/SBO Exports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torem\Dropbox\RLC Documents\LLM Model and Documents\Projects\RLC-Agent\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5FD6481-EB9B-4201-BA27-DD5D619847D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C961A37D-D350-4C26-B0B0-1862663B47C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="285" windowWidth="25875" windowHeight="13305" xr2:uid="{043D2ADA-A7EB-413E-8C83-AD2B8ED6C80F}"/>
+    <workbookView minimized="1" xWindow="-74955" yWindow="2145" windowWidth="25875" windowHeight="13305" xr2:uid="{043D2ADA-A7EB-413E-8C83-AD2B8ED6C80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard Query_44780" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>Data generated on Tuesday, December 30, 2025 at 6:23:44 AM EST</t>
   </si>
@@ -168,13 +168,46 @@
   </si>
   <si>
     <t>3. Product Group : Harmonized</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +338,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -651,9 +690,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1031,13 +1071,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C93804-4AC7-42CA-9D42-56850013B849}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -2060,323 +2102,352 @@
         <v>44</v>
       </c>
     </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>2020</v>
       </c>
-      <c r="H23">
-        <f>((H6*2.204622)+(H12*2204.622)/1000)</f>
-        <v>25922763.170299802</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ref="I23:S23" si="0">((I6*2.204622)+(I12*2204.622)/1000)</f>
-        <v>36486319.934862003</v>
-      </c>
-      <c r="J23">
+      <c r="H23" s="2">
+        <f t="shared" ref="H23:O23" si="0">((H6*2.204622)+(H12*2204.622))/1000</f>
+        <v>124769.23727057999</v>
+      </c>
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>32596587.613447201</v>
-      </c>
-      <c r="K23">
+        <v>395017.84489948204</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>36502716.370062597</v>
-      </c>
-      <c r="L23">
+        <v>319872.42218068201</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="0"/>
-        <v>35649337.176721804</v>
-      </c>
-      <c r="M23">
+        <v>229644.36905898599</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="0"/>
-        <v>25680171.636050403</v>
-      </c>
-      <c r="N23">
+        <v>357127.17193213193</v>
+      </c>
+      <c r="M23" s="2">
         <f t="shared" si="0"/>
-        <v>22501555.132165201</v>
-      </c>
-      <c r="O23">
+        <v>166815.92253652198</v>
+      </c>
+      <c r="N23" s="2">
         <f t="shared" si="0"/>
-        <v>32398774.597564202</v>
-      </c>
-      <c r="P23">
+        <v>164168.96958768601</v>
+      </c>
+      <c r="O23" s="2">
         <f t="shared" si="0"/>
-        <v>27688642.905155398</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>42868662.264439203</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>31927263.933322802</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="0"/>
-        <v>26744230.239728399</v>
+        <v>199910.455775226</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" ref="P23:S23" si="1">((P6*2.204622)+(P12*2204.622))/1000</f>
+        <v>177956.717463504</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="1"/>
+        <v>183886.36359344999</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="1"/>
+        <v>174525.86045626199</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="1"/>
+        <v>233906.25171526195</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>2021</v>
       </c>
-      <c r="H24">
-        <f t="shared" ref="H24:S24" si="1">((H7*2.204622)+(H13*2204.622)/1000)</f>
-        <v>28086371.264460601</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>27346765.557749402</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>21042482.4997884</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>19844149.849964999</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>17371647.758140203</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>16572143.7944622</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
-        <v>15544709.914683601</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
-        <v>16480272.786478201</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
-        <v>16159674.8915406</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
-        <v>21490617.556963801</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="1"/>
-        <v>22419338.604843602</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="1"/>
-        <v>27145257.595394403</v>
+      <c r="H24" s="2">
+        <f t="shared" ref="H24:O24" si="2">((H7*2.204622)+(H13*2204.622))/1000</f>
+        <v>327230.37235652393</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="2"/>
+        <v>254247.95278360799</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="2"/>
+        <v>155458.657979982</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="2"/>
+        <v>128549.9655846</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="2"/>
+        <v>70421.495383764006</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>90855.497361383983</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="2"/>
+        <v>29670.574493699998</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="2"/>
+        <v>39709.389113981997</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" ref="P24:S24" si="3">((P7*2.204622)+(P13*2204.622))/1000</f>
+        <v>33297.345234972003</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="3"/>
+        <v>56607.942407435999</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="3"/>
+        <v>228750.16776191996</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="3"/>
+        <v>164074.39130388596</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>2022</v>
       </c>
-      <c r="H25">
-        <f t="shared" ref="H25:S25" si="2">((H8*2.204622)+(H14*2204.622)/1000)</f>
-        <v>39400377.169041</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>51836532.144226201</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>22472940.681840602</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>22423099.028589003</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="2"/>
-        <v>13971708.149364002</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>15791831.065294201</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
-        <v>17866039.7531952</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
-        <v>21425333.408451002</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
-        <v>21707655.317611203</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="2"/>
-        <v>19696545.556896601</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="2"/>
-        <v>20813503.183615804</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="2"/>
-        <v>11556110.6582922</v>
+      <c r="H25" s="2">
+        <f t="shared" ref="H25:O25" si="4">((H8*2.204622)+(H14*2204.622))/1000</f>
+        <v>283810.34206652397</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="4"/>
+        <v>234144.05326729201</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>275593.02582583798</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="4"/>
+        <v>157143.86883215999</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="4"/>
+        <v>73388.52417304799</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="4"/>
+        <v>72607.812407297999</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="4"/>
+        <v>117799.84731299401</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="4"/>
+        <v>56546.182126727996</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" ref="P25:S25" si="5">((P8*2.204622)+(P14*2204.622))/1000</f>
+        <v>44700.011776979998</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="5"/>
+        <v>23080.119374718</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="5"/>
+        <v>23246.954144568004</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="5"/>
+        <v>34373.374936109998</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>2023</v>
       </c>
-      <c r="H26">
-        <f t="shared" ref="H26:S26" si="3">((H9*2.204622)+(H15*2204.622)/1000)</f>
-        <v>14336176.919790601</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>11427910.566219</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>10881069.070548601</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
-        <v>15571618.2080424</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="3"/>
-        <v>13026232.856132999</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="3"/>
-        <v>11865661.412850002</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="3"/>
-        <v>13599109.394388001</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="3"/>
-        <v>15956412.711460199</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="3"/>
-        <v>19557448.018277403</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="3"/>
-        <v>12057403.781593801</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="3"/>
-        <v>12467259.105134401</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="3"/>
-        <v>11988515.957959801</v>
+      <c r="H26" s="2">
+        <f t="shared" ref="H26:O26" si="6">((H9*2.204622)+(H15*2204.622))/1000</f>
+        <v>14781.725955360002</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="6"/>
+        <v>25546.507167888001</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="6"/>
+        <v>12218.597144208001</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="6"/>
+        <v>60212.856526199997</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="6"/>
+        <v>49450.912662185998</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="6"/>
+        <v>39882.612878388005</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="6"/>
+        <v>36839.017567044</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="6"/>
+        <v>25856.499067308003</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" ref="P26:S26" si="7">((P9*2.204622)+(P15*2204.622))/1000</f>
+        <v>27600.015557520001</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="7"/>
+        <v>12576.954041064002</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="7"/>
+        <v>13249.557757800001</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="7"/>
+        <v>12367.111505238001</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>2024</v>
       </c>
-      <c r="H27">
-        <f t="shared" ref="H27:S27" si="4">((H10*2.204622)+(H16*2204.622)/1000)</f>
-        <v>11185989.2370576</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="4"/>
-        <v>13016084.540142599</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>27036572.155878603</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>20312932.5149436</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="4"/>
-        <v>30828013.169121001</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="4"/>
-        <v>32424538.471642803</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="4"/>
-        <v>32801255.240052599</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="4"/>
-        <v>35276163.676790401</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="4"/>
-        <v>33311149.6960872</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="4"/>
-        <v>28767410.526355203</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="4"/>
-        <v>27763260.7618296</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="4"/>
-        <v>48993725.647540808</v>
+      <c r="H27" s="2">
+        <f t="shared" ref="H27:O27" si="8">((H10*2.204622)+(H16*2204.622))/1000</f>
+        <v>11247.216440166001</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="8"/>
+        <v>13754.555086986</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="8"/>
+        <v>98364.722084999987</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="8"/>
+        <v>21856.386613445997</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="8"/>
+        <v>93598.00965081001</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="8"/>
+        <v>114930.17683585199</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="8"/>
+        <v>96826.189143725991</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="8"/>
+        <v>63456.534511776001</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" ref="P27:S27" si="9">((P10*2.204622)+(P16*2204.622))/1000</f>
+        <v>60056.425367568001</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="9"/>
+        <v>29588.031241398003</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="9"/>
+        <v>128149.00436759401</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="9"/>
+        <v>279109.78152006597</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>2025</v>
       </c>
-      <c r="H28">
-        <f t="shared" ref="H28:S28" si="5">((H11*2.204622)+(H17*2204.622)/1000)</f>
-        <v>45044952.005730599</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="5"/>
-        <v>60493304.947584607</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="5"/>
-        <v>48290778.395445608</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="5"/>
-        <v>54612071.434909806</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
-        <v>48830393.581124403</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="5"/>
-        <v>54906448.658090405</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="5"/>
-        <v>47377563.556402802</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="5"/>
-        <v>33840493.1069436</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="5"/>
-        <v>25542380.776890598</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="H28" s="2">
+        <f t="shared" ref="H28:O28" si="10">((H11*2.204622)+(H17*2204.622))/1000</f>
+        <v>468673.98813710996</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="10"/>
+        <v>300094.95222541795</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="10"/>
+        <v>343326.16986884997</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="10"/>
+        <v>350427.33890186402</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="10"/>
+        <v>312898.47526942199</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="10"/>
+        <v>93330.262718154016</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="10"/>
+        <v>62740.305734903995</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="10"/>
+        <v>80722.911348953989</v>
+      </c>
+      <c r="P28" s="2">
+        <f>((P11*2.204622)+(P17*2204.622))/1000</f>
+        <v>38361.110642063999</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P30">
@@ -2385,6 +2456,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Models/SBO Exports.xlsx
+++ b/Models/SBO Exports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torem\Dropbox\RLC Documents\LLM Model and Documents\Projects\RLC-Agent\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C961A37D-D350-4C26-B0B0-1862663B47C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F45E10-2B53-48D8-84E3-EE1426A6CB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-74955" yWindow="2145" windowWidth="25875" windowHeight="13305" xr2:uid="{043D2ADA-A7EB-413E-8C83-AD2B8ED6C80F}"/>
+    <workbookView xWindow="915" yWindow="3030" windowWidth="25875" windowHeight="13500" xr2:uid="{043D2ADA-A7EB-413E-8C83-AD2B8ED6C80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard Query_44780" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
   <si>
     <t>Data generated on Tuesday, December 30, 2025 at 6:23:44 AM EST</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>Latest Line 290</t>
+  </si>
+  <si>
+    <t>Latest Line 289</t>
   </si>
 </sst>
 </file>
@@ -690,10 +699,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1069,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C93804-4AC7-42CA-9D42-56850013B849}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,6 +2465,983 @@
         <v>12831.561426600001</v>
       </c>
     </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="3">
+        <v>43831</v>
+      </c>
+      <c r="G33">
+        <v>124769.23727057999</v>
+      </c>
+      <c r="H33">
+        <v>124769.2593168</v>
+      </c>
+      <c r="I33">
+        <v>124593.28579522</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="3">
+        <v>43862</v>
+      </c>
+      <c r="G34">
+        <v>395017.84489948204</v>
+      </c>
+      <c r="H34">
+        <v>395017.77655619988</v>
+      </c>
+      <c r="I34">
+        <v>395609.63645411999</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="3">
+        <v>43891</v>
+      </c>
+      <c r="G35">
+        <v>319872.42218068201</v>
+      </c>
+      <c r="H35">
+        <v>319872.35383739998</v>
+      </c>
+      <c r="I35">
+        <v>319777.46120518004</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <v>43922</v>
+      </c>
+      <c r="G36">
+        <v>229644.36905898599</v>
+      </c>
+      <c r="H36">
+        <v>229644.23016780001</v>
+      </c>
+      <c r="I36">
+        <v>229693.65665267996</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="3">
+        <v>43952</v>
+      </c>
+      <c r="G37">
+        <v>357127.17193213193</v>
+      </c>
+      <c r="H37">
+        <v>357127.1587044</v>
+      </c>
+      <c r="I37">
+        <v>357123.91580712004</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="3">
+        <v>43983</v>
+      </c>
+      <c r="G38">
+        <v>166815.92253652198</v>
+      </c>
+      <c r="H38">
+        <v>166815.81010080001</v>
+      </c>
+      <c r="I38">
+        <v>166824.36481237999</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="3">
+        <v>44013</v>
+      </c>
+      <c r="G39">
+        <v>164168.96958768601</v>
+      </c>
+      <c r="H39">
+        <v>164168.94092759999</v>
+      </c>
+      <c r="I39">
+        <v>164214.83768932</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <v>44044</v>
+      </c>
+      <c r="G40">
+        <v>199910.455775226</v>
+      </c>
+      <c r="H40">
+        <v>199910.2727916</v>
+      </c>
+      <c r="I40">
+        <v>200055.47289728001</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="3">
+        <v>44075</v>
+      </c>
+      <c r="G41">
+        <v>177956.717463504</v>
+      </c>
+      <c r="H41">
+        <v>177956.64691559999</v>
+      </c>
+      <c r="I41">
+        <v>178051.98961439999</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="3">
+        <v>44105</v>
+      </c>
+      <c r="G42">
+        <v>183886.36359344999</v>
+      </c>
+      <c r="H42">
+        <v>183886.19824679999</v>
+      </c>
+      <c r="I42">
+        <v>183898.48973562001</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="3">
+        <v>44136</v>
+      </c>
+      <c r="G43">
+        <v>174525.86045626199</v>
+      </c>
+      <c r="H43">
+        <v>174525.8141592</v>
+      </c>
+      <c r="I43">
+        <v>175076.36770338</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="3">
+        <v>44166</v>
+      </c>
+      <c r="G44">
+        <v>233906.25171526195</v>
+      </c>
+      <c r="H44">
+        <v>233906.2054182</v>
+      </c>
+      <c r="I44">
+        <v>234893.42488303999</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="3">
+        <v>44197</v>
+      </c>
+      <c r="G45">
+        <v>327230.37235652393</v>
+      </c>
+      <c r="H45">
+        <v>327230.50022460002</v>
+      </c>
+      <c r="I45">
+        <v>327282.15523630008</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F46" s="3">
+        <v>44228</v>
+      </c>
+      <c r="G46">
+        <v>254247.95278360799</v>
+      </c>
+      <c r="H46">
+        <v>254248.03215000001</v>
+      </c>
+      <c r="I46">
+        <v>255144.66737143998</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F47" s="3">
+        <v>44256</v>
+      </c>
+      <c r="G47">
+        <v>155458.657979982</v>
+      </c>
+      <c r="H47">
+        <v>155458.69986779999</v>
+      </c>
+      <c r="I47">
+        <v>154790.33631138</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F48" s="3">
+        <v>44287</v>
+      </c>
+      <c r="G48">
+        <v>128549.9655846</v>
+      </c>
+      <c r="H48">
+        <v>128549.9655846</v>
+      </c>
+      <c r="I48">
+        <v>130738.42815087998</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F49" s="3">
+        <v>44317</v>
+      </c>
+      <c r="G49">
+        <v>70421.495383764006</v>
+      </c>
+      <c r="H49">
+        <v>70421.579159399989</v>
+      </c>
+      <c r="I49">
+        <v>71295.19295228002</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F50" s="3">
+        <v>44348</v>
+      </c>
+      <c r="G50">
+        <v>90855.497361383983</v>
+      </c>
+      <c r="H50">
+        <v>90855.338628599988</v>
+      </c>
+      <c r="I50">
+        <v>91233.981261939989</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F51" s="3">
+        <v>44378</v>
+      </c>
+      <c r="G51">
+        <v>29670.574493699998</v>
+      </c>
+      <c r="H51">
+        <v>29670.464262599999</v>
+      </c>
+      <c r="I51">
+        <v>35537.519799540001</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F52" s="3">
+        <v>44409</v>
+      </c>
+      <c r="G52">
+        <v>39709.389113981997</v>
+      </c>
+      <c r="H52">
+        <v>39709.431001800003</v>
+      </c>
+      <c r="I52">
+        <v>24694.848104960001</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="3">
+        <v>44440</v>
+      </c>
+      <c r="G53">
+        <v>33297.345234972003</v>
+      </c>
+      <c r="H53">
+        <v>33297.287914799999</v>
+      </c>
+      <c r="I53">
+        <v>34430.668282340004</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F54" s="3">
+        <v>44470</v>
+      </c>
+      <c r="G54">
+        <v>56607.942407435999</v>
+      </c>
+      <c r="H54">
+        <v>56608.079093999993</v>
+      </c>
+      <c r="I54">
+        <v>57888.122706039998</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F55" s="3">
+        <v>44501</v>
+      </c>
+      <c r="G55">
+        <v>228750.16776191996</v>
+      </c>
+      <c r="H55">
+        <v>228750.2559468</v>
+      </c>
+      <c r="I55">
+        <v>229480.13700106001</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F56" s="3">
+        <v>44531</v>
+      </c>
+      <c r="G56">
+        <v>164074.39130388596</v>
+      </c>
+      <c r="H56">
+        <v>164074.36264380001</v>
+      </c>
+      <c r="I56">
+        <v>164782.09964304004</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="3">
+        <v>44562</v>
+      </c>
+      <c r="G57">
+        <v>283810.34206652397</v>
+      </c>
+      <c r="H57">
+        <v>283810.24947239988</v>
+      </c>
+      <c r="I57">
+        <v>284021.65536557994</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F58" s="3">
+        <v>44593</v>
+      </c>
+      <c r="G58">
+        <v>234144.05326729201</v>
+      </c>
+      <c r="H58">
+        <v>234144.08413199999</v>
+      </c>
+      <c r="I58">
+        <v>235031.55534914002</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F59" s="3">
+        <v>44621</v>
+      </c>
+      <c r="G59">
+        <v>275593.02582583798</v>
+      </c>
+      <c r="H59">
+        <v>275592.96189179999</v>
+      </c>
+      <c r="I59">
+        <v>265804.34237829997</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="3">
+        <v>44652</v>
+      </c>
+      <c r="G60">
+        <v>157143.86883215999</v>
+      </c>
+      <c r="H60">
+        <v>157143.91292460001</v>
+      </c>
+      <c r="I60">
+        <v>167630.84787768003</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F61" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G61">
+        <v>73388.52417304799</v>
+      </c>
+      <c r="H61">
+        <v>73388.559446999992</v>
+      </c>
+      <c r="I61">
+        <v>73906.267718579998</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F62" s="3">
+        <v>44713</v>
+      </c>
+      <c r="G62">
+        <v>72607.812407297999</v>
+      </c>
+      <c r="H62">
+        <v>72607.902796799986</v>
+      </c>
+      <c r="I62">
+        <v>73057.696252859998</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F63" s="3">
+        <v>44743</v>
+      </c>
+      <c r="G63">
+        <v>117799.84731299401</v>
+      </c>
+      <c r="H63">
+        <v>117799.7877882</v>
+      </c>
+      <c r="I63">
+        <v>117925.5206316</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F64" s="3">
+        <v>44774</v>
+      </c>
+      <c r="G64">
+        <v>56546.182126727996</v>
+      </c>
+      <c r="H64">
+        <v>56546.129215799992</v>
+      </c>
+      <c r="I64">
+        <v>56829.618505439998</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F65" s="3">
+        <v>44805</v>
+      </c>
+      <c r="G65">
+        <v>44700.011776979998</v>
+      </c>
+      <c r="H65">
+        <v>44699.813361</v>
+      </c>
+      <c r="I65">
+        <v>44888.512532819979</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G66">
+        <v>23080.119374718</v>
+      </c>
+      <c r="H66">
+        <v>23080.187718000001</v>
+      </c>
+      <c r="I66">
+        <v>23193.758999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
+        <v>44866</v>
+      </c>
+      <c r="G67">
+        <v>23246.954144568004</v>
+      </c>
+      <c r="H67">
+        <v>23247.077603400001</v>
+      </c>
+      <c r="I67">
+        <v>23562.170999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F68" s="3">
+        <v>44896</v>
+      </c>
+      <c r="G68">
+        <v>34373.374936109998</v>
+      </c>
+      <c r="H68">
+        <v>34373.363912999986</v>
+      </c>
+      <c r="I68">
+        <v>34684.893000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F69" s="3">
+        <v>44927</v>
+      </c>
+      <c r="G69">
+        <v>14781.725955360002</v>
+      </c>
+      <c r="H69">
+        <v>14781.770047800001</v>
+      </c>
+      <c r="I69">
+        <v>14802.943000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F70" s="3">
+        <v>44958</v>
+      </c>
+      <c r="G70">
+        <v>25546.507167888001</v>
+      </c>
+      <c r="H70">
+        <v>25546.49834939999</v>
+      </c>
+      <c r="I70">
+        <v>25735.834999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F71" s="3">
+        <v>44986</v>
+      </c>
+      <c r="G71">
+        <v>12218.597144208001</v>
+      </c>
+      <c r="H71">
+        <v>12218.6765106</v>
+      </c>
+      <c r="I71">
+        <v>12409.181999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F72" s="3">
+        <v>45017</v>
+      </c>
+      <c r="G72">
+        <v>60212.856526199997</v>
+      </c>
+      <c r="H72">
+        <v>60212.856526199997</v>
+      </c>
+      <c r="I72">
+        <v>60211.432000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F73" s="3">
+        <v>45047</v>
+      </c>
+      <c r="G73">
+        <v>49450.912662185998</v>
+      </c>
+      <c r="H73">
+        <v>49450.994233199992</v>
+      </c>
+      <c r="I73">
+        <v>50129.056999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F74" s="3">
+        <v>45078</v>
+      </c>
+      <c r="G74">
+        <v>39882.612878388005</v>
+      </c>
+      <c r="H74">
+        <v>39882.49382879999</v>
+      </c>
+      <c r="I74">
+        <v>39452.435999999987</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F75" s="3">
+        <v>45108</v>
+      </c>
+      <c r="G75">
+        <v>36839.017567044</v>
+      </c>
+      <c r="H75">
+        <v>36839.013157799993</v>
+      </c>
+      <c r="I75">
+        <v>37058.182000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F76" s="3">
+        <v>45139</v>
+      </c>
+      <c r="G76">
+        <v>25856.499067308003</v>
+      </c>
+      <c r="H76">
+        <v>25856.46820259999</v>
+      </c>
+      <c r="I76">
+        <v>26118.431000000011</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F77" s="3">
+        <v>45170</v>
+      </c>
+      <c r="G77">
+        <v>27600.015557520001</v>
+      </c>
+      <c r="H77">
+        <v>27600.103742399999</v>
+      </c>
+      <c r="I77">
+        <v>27613.676800159996</v>
+      </c>
+    </row>
+    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F78" s="3">
+        <v>45200</v>
+      </c>
+      <c r="G78">
+        <v>12576.954041064002</v>
+      </c>
+      <c r="H78">
+        <v>12576.9275856</v>
+      </c>
+      <c r="I78">
+        <v>12734.178334460003</v>
+      </c>
+    </row>
+    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F79" s="3">
+        <v>45231</v>
+      </c>
+      <c r="G79">
+        <v>13249.557757800001</v>
+      </c>
+      <c r="H79">
+        <v>13249.557757799999</v>
+      </c>
+      <c r="I79">
+        <v>13363.032961739998</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F80" s="3">
+        <v>45261</v>
+      </c>
+      <c r="G80">
+        <v>12367.111505238001</v>
+      </c>
+      <c r="H80">
+        <v>12367.2680334</v>
+      </c>
+      <c r="I80">
+        <v>12457.98133624</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F81" s="3">
+        <v>45292</v>
+      </c>
+      <c r="G81">
+        <v>11247.216440166001</v>
+      </c>
+      <c r="H81">
+        <v>19466.303</v>
+      </c>
+      <c r="I81">
+        <v>19438.104000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F82" s="3">
+        <v>45323</v>
+      </c>
+      <c r="G82">
+        <v>13754.555086986</v>
+      </c>
+      <c r="H82">
+        <v>22389.966</v>
+      </c>
+      <c r="I82">
+        <v>22324.816999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F83" s="3">
+        <v>45352</v>
+      </c>
+      <c r="G83">
+        <v>98364.722084999987</v>
+      </c>
+      <c r="H83">
+        <v>106677.406</v>
+      </c>
+      <c r="I83">
+        <v>106644.45800000003</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F84" s="3">
+        <v>45383</v>
+      </c>
+      <c r="G84">
+        <v>21856.386613445997</v>
+      </c>
+      <c r="H84">
+        <v>32096.75</v>
+      </c>
+      <c r="I84">
+        <v>32059.226000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F85" s="3">
+        <v>45413</v>
+      </c>
+      <c r="G85">
+        <v>93598.00965081001</v>
+      </c>
+      <c r="H85">
+        <v>103465.742</v>
+      </c>
+      <c r="I85">
+        <v>102939.462</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F86" s="3">
+        <v>45444</v>
+      </c>
+      <c r="G86">
+        <v>114930.17683585199</v>
+      </c>
+      <c r="H86">
+        <v>126708.20600000001</v>
+      </c>
+      <c r="I86">
+        <v>126014.75300000001</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <v>45474</v>
+      </c>
+      <c r="G87">
+        <v>96826.189143725991</v>
+      </c>
+      <c r="H87">
+        <v>104625.77099999999</v>
+      </c>
+      <c r="I87">
+        <v>104279.32500000001</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F88" s="3">
+        <v>45505</v>
+      </c>
+      <c r="G88">
+        <v>63456.534511776001</v>
+      </c>
+      <c r="H88">
+        <v>72382.743000000002</v>
+      </c>
+      <c r="I88">
+        <v>72331.405999999988</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F89" s="3">
+        <v>45536</v>
+      </c>
+      <c r="G89">
+        <v>60056.425367568001</v>
+      </c>
+      <c r="H89">
+        <v>72171.360000000001</v>
+      </c>
+      <c r="I89">
+        <v>72141.073000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <v>45566</v>
+      </c>
+      <c r="G90">
+        <v>29588.031241398003</v>
+      </c>
+      <c r="H90">
+        <v>37857.152999999998</v>
+      </c>
+      <c r="I90">
+        <v>37835.839999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F91" s="3">
+        <v>45597</v>
+      </c>
+      <c r="G91">
+        <v>128149.00436759401</v>
+      </c>
+      <c r="H91">
+        <v>136933.049</v>
+      </c>
+      <c r="I91">
+        <v>136898.87399999998</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <v>45627</v>
+      </c>
+      <c r="G92">
+        <v>279109.78152006597</v>
+      </c>
+      <c r="H92">
+        <v>314903.723</v>
+      </c>
+      <c r="I92">
+        <v>314882.29500000004</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <v>45658</v>
+      </c>
+      <c r="G93">
+        <v>468673.98813710996</v>
+      </c>
+      <c r="H93">
+        <v>484071.07699999999</v>
+      </c>
+      <c r="I93">
+        <v>484037.73300000001</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F94" s="3">
+        <v>45689</v>
+      </c>
+      <c r="G94">
+        <v>300094.95222541795</v>
+      </c>
+      <c r="H94">
+        <v>321670.61499999999</v>
+      </c>
+      <c r="I94">
+        <v>321611.85600000003</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <v>45717</v>
+      </c>
+      <c r="G95">
+        <v>343326.16986884997</v>
+      </c>
+      <c r="H95">
+        <v>358500.397</v>
+      </c>
+      <c r="I95">
+        <v>358500.397</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <v>45748</v>
+      </c>
+      <c r="G96">
+        <v>350427.33890186402</v>
+      </c>
+      <c r="H96">
+        <v>377332.364</v>
+      </c>
+      <c r="I96">
+        <v>377088.61499999999</v>
+      </c>
+    </row>
+    <row r="97" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F97" s="3">
+        <v>45778</v>
+      </c>
+      <c r="G97">
+        <v>312898.47526942199</v>
+      </c>
+      <c r="H97">
+        <v>340540.51500000001</v>
+      </c>
+      <c r="I97">
+        <v>340444.60900000005</v>
+      </c>
+    </row>
+    <row r="98" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F98" s="3">
+        <v>45809</v>
+      </c>
+      <c r="G98">
+        <v>93330.262718154016</v>
+      </c>
+      <c r="H98">
+        <v>115160.93799999999</v>
+      </c>
+      <c r="I98">
+        <v>114792.17599999999</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F99" s="3">
+        <v>45839</v>
+      </c>
+      <c r="G99">
+        <v>62740.305734903995</v>
+      </c>
+      <c r="H99">
+        <v>76610.122000000003</v>
+      </c>
+      <c r="I99">
+        <v>76522.956000000006</v>
+      </c>
+    </row>
+    <row r="100" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F100" s="3">
+        <v>45870</v>
+      </c>
+      <c r="G100">
+        <v>80722.911348953989</v>
+      </c>
+      <c r="H100">
+        <v>104498.439</v>
+      </c>
+      <c r="I100">
+        <v>103681.29300000001</v>
+      </c>
+    </row>
+    <row r="101" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F101" s="3">
+        <v>45901</v>
+      </c>
+      <c r="G101">
+        <v>38361.110642063999</v>
+      </c>
+      <c r="H101">
+        <v>51896.036</v>
+      </c>
+      <c r="I101">
+        <v>51391.305999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Models/SBO Exports.xlsx
+++ b/Models/SBO Exports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torem\Dropbox\RLC Documents\LLM Model and Documents\Projects\RLC-Agent\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F45E10-2B53-48D8-84E3-EE1426A6CB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4263C436-9531-44F6-9A93-4A15CD593808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="3030" windowWidth="25875" windowHeight="13500" xr2:uid="{043D2ADA-A7EB-413E-8C83-AD2B8ED6C80F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25875" windowHeight="13500" xr2:uid="{043D2ADA-A7EB-413E-8C83-AD2B8ED6C80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard Query_44780" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
   <si>
     <t>Data generated on Tuesday, December 30, 2025 at 6:23:44 AM EST</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>Latest Line 289</t>
+  </si>
+  <si>
+    <t>First Try</t>
+  </si>
+  <si>
+    <t>Line 290</t>
+  </si>
+  <si>
+    <t>Line 289</t>
+  </si>
+  <si>
+    <t>After 9 am update</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C93804-4AC7-42CA-9D42-56850013B849}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:I101"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,18 +2477,32 @@
         <v>12831.561426600001</v>
       </c>
     </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>56</v>
       </c>
       <c r="H32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
         <v>57</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F33" s="3">
         <v>43831</v>
       </c>
@@ -2489,8 +2515,14 @@
       <c r="I33">
         <v>124593.28579522</v>
       </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>124769.2593168</v>
+      </c>
+      <c r="K33">
+        <v>124593.28579522</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F34" s="3">
         <v>43862</v>
       </c>
@@ -2503,8 +2535,14 @@
       <c r="I34">
         <v>395609.63645411999</v>
       </c>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>395017.77655619988</v>
+      </c>
+      <c r="K34">
+        <v>395609.63645411999</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F35" s="3">
         <v>43891</v>
       </c>
@@ -2517,8 +2555,14 @@
       <c r="I35">
         <v>319777.46120518004</v>
       </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>319872.35383739998</v>
+      </c>
+      <c r="K35">
+        <v>319777.46120518004</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F36" s="3">
         <v>43922</v>
       </c>
@@ -2531,8 +2575,14 @@
       <c r="I36">
         <v>229693.65665267996</v>
       </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>229644.23016780001</v>
+      </c>
+      <c r="K36">
+        <v>229693.65665267996</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F37" s="3">
         <v>43952</v>
       </c>
@@ -2545,8 +2595,14 @@
       <c r="I37">
         <v>357123.91580712004</v>
       </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>357127.1587044</v>
+      </c>
+      <c r="K37">
+        <v>357123.91580712004</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F38" s="3">
         <v>43983</v>
       </c>
@@ -2559,8 +2615,14 @@
       <c r="I38">
         <v>166824.36481237999</v>
       </c>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>166815.81010080001</v>
+      </c>
+      <c r="K38">
+        <v>166824.36481237999</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F39" s="3">
         <v>44013</v>
       </c>
@@ -2573,8 +2635,14 @@
       <c r="I39">
         <v>164214.83768932</v>
       </c>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>164168.94092759999</v>
+      </c>
+      <c r="K39">
+        <v>164214.83768932</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F40" s="3">
         <v>44044</v>
       </c>
@@ -2587,8 +2655,14 @@
       <c r="I40">
         <v>200055.47289728001</v>
       </c>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>199910.2727916</v>
+      </c>
+      <c r="K40">
+        <v>200055.47289728001</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F41" s="3">
         <v>44075</v>
       </c>
@@ -2601,8 +2675,14 @@
       <c r="I41">
         <v>178051.98961439999</v>
       </c>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>177956.64691559999</v>
+      </c>
+      <c r="K41">
+        <v>178051.98961439999</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F42" s="3">
         <v>44105</v>
       </c>
@@ -2615,8 +2695,14 @@
       <c r="I42">
         <v>183898.48973562001</v>
       </c>
-    </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>183886.19824679999</v>
+      </c>
+      <c r="K42">
+        <v>183898.48973562001</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F43" s="3">
         <v>44136</v>
       </c>
@@ -2629,8 +2715,14 @@
       <c r="I43">
         <v>175076.36770338</v>
       </c>
-    </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>174525.8141592</v>
+      </c>
+      <c r="K43">
+        <v>175076.36770338</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F44" s="3">
         <v>44166</v>
       </c>
@@ -2643,8 +2735,14 @@
       <c r="I44">
         <v>234893.42488303999</v>
       </c>
-    </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>233906.2054182</v>
+      </c>
+      <c r="K44">
+        <v>234893.42488303999</v>
+      </c>
+    </row>
+    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3">
         <v>44197</v>
       </c>
@@ -2657,8 +2755,14 @@
       <c r="I45">
         <v>327282.15523630008</v>
       </c>
-    </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>327230.50022460002</v>
+      </c>
+      <c r="K45">
+        <v>327282.15523630008</v>
+      </c>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F46" s="3">
         <v>44228</v>
       </c>
@@ -2671,8 +2775,14 @@
       <c r="I46">
         <v>255144.66737143998</v>
       </c>
-    </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>254248.03215000001</v>
+      </c>
+      <c r="K46">
+        <v>255144.66737143998</v>
+      </c>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F47" s="3">
         <v>44256</v>
       </c>
@@ -2685,8 +2795,14 @@
       <c r="I47">
         <v>154790.33631138</v>
       </c>
-    </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>155458.69986779999</v>
+      </c>
+      <c r="K47">
+        <v>154790.33631138</v>
+      </c>
+    </row>
+    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F48" s="3">
         <v>44287</v>
       </c>
@@ -2699,8 +2815,14 @@
       <c r="I48">
         <v>130738.42815087998</v>
       </c>
-    </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>128549.9655846</v>
+      </c>
+      <c r="K48">
+        <v>130738.42815087998</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F49" s="3">
         <v>44317</v>
       </c>
@@ -2713,8 +2835,14 @@
       <c r="I49">
         <v>71295.19295228002</v>
       </c>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>70421.579159399989</v>
+      </c>
+      <c r="K49">
+        <v>71295.19295228002</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F50" s="3">
         <v>44348</v>
       </c>
@@ -2727,8 +2855,14 @@
       <c r="I50">
         <v>91233.981261939989</v>
       </c>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>90855.338628599988</v>
+      </c>
+      <c r="K50">
+        <v>91233.981261939989</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F51" s="3">
         <v>44378</v>
       </c>
@@ -2741,8 +2875,14 @@
       <c r="I51">
         <v>35537.519799540001</v>
       </c>
-    </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>29670.464262599999</v>
+      </c>
+      <c r="K51">
+        <v>35537.519799540001</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F52" s="3">
         <v>44409</v>
       </c>
@@ -2755,8 +2895,14 @@
       <c r="I52">
         <v>24694.848104960001</v>
       </c>
-    </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>39709.431001800003</v>
+      </c>
+      <c r="K52">
+        <v>24694.848104960001</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F53" s="3">
         <v>44440</v>
       </c>
@@ -2769,8 +2915,14 @@
       <c r="I53">
         <v>34430.668282340004</v>
       </c>
-    </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>33297.287914799999</v>
+      </c>
+      <c r="K53">
+        <v>34430.668282340004</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F54" s="3">
         <v>44470</v>
       </c>
@@ -2783,8 +2935,14 @@
       <c r="I54">
         <v>57888.122706039998</v>
       </c>
-    </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>56608.079093999993</v>
+      </c>
+      <c r="K54">
+        <v>57888.122706039998</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F55" s="3">
         <v>44501</v>
       </c>
@@ -2797,8 +2955,14 @@
       <c r="I55">
         <v>229480.13700106001</v>
       </c>
-    </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>228750.2559468</v>
+      </c>
+      <c r="K55">
+        <v>229480.13700106001</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F56" s="3">
         <v>44531</v>
       </c>
@@ -2811,8 +2975,14 @@
       <c r="I56">
         <v>164782.09964304004</v>
       </c>
-    </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>164074.36264380001</v>
+      </c>
+      <c r="K56">
+        <v>164782.09964304004</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F57" s="3">
         <v>44562</v>
       </c>
@@ -2825,8 +2995,14 @@
       <c r="I57">
         <v>284021.65536557994</v>
       </c>
-    </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>283810.24947239988</v>
+      </c>
+      <c r="K57">
+        <v>284021.65536557994</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F58" s="3">
         <v>44593</v>
       </c>
@@ -2839,8 +3015,14 @@
       <c r="I58">
         <v>235031.55534914002</v>
       </c>
-    </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>234144.08413199999</v>
+      </c>
+      <c r="K58">
+        <v>235031.55534914002</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F59" s="3">
         <v>44621</v>
       </c>
@@ -2853,8 +3035,14 @@
       <c r="I59">
         <v>265804.34237829997</v>
       </c>
-    </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>275592.96189179999</v>
+      </c>
+      <c r="K59">
+        <v>265804.34237829997</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F60" s="3">
         <v>44652</v>
       </c>
@@ -2867,8 +3055,14 @@
       <c r="I60">
         <v>167630.84787768003</v>
       </c>
-    </row>
-    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>157143.91292460001</v>
+      </c>
+      <c r="K60">
+        <v>167630.84787768003</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F61" s="3">
         <v>44682</v>
       </c>
@@ -2881,8 +3075,14 @@
       <c r="I61">
         <v>73906.267718579998</v>
       </c>
-    </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>73388.559446999992</v>
+      </c>
+      <c r="K61">
+        <v>73906.267718579998</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F62" s="3">
         <v>44713</v>
       </c>
@@ -2895,8 +3095,14 @@
       <c r="I62">
         <v>73057.696252859998</v>
       </c>
-    </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>72607.902796799986</v>
+      </c>
+      <c r="K62">
+        <v>73057.696252859998</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F63" s="3">
         <v>44743</v>
       </c>
@@ -2909,8 +3115,14 @@
       <c r="I63">
         <v>117925.5206316</v>
       </c>
-    </row>
-    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>117799.7877882</v>
+      </c>
+      <c r="K63">
+        <v>117925.5206316</v>
+      </c>
+    </row>
+    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F64" s="3">
         <v>44774</v>
       </c>
@@ -2923,8 +3135,14 @@
       <c r="I64">
         <v>56829.618505439998</v>
       </c>
-    </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>56546.129215799992</v>
+      </c>
+      <c r="K64">
+        <v>56829.618505439998</v>
+      </c>
+    </row>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F65" s="3">
         <v>44805</v>
       </c>
@@ -2937,8 +3155,14 @@
       <c r="I65">
         <v>44888.512532819979</v>
       </c>
-    </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>44699.813361</v>
+      </c>
+      <c r="K65">
+        <v>44888.512532819979</v>
+      </c>
+    </row>
+    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F66" s="3">
         <v>44835</v>
       </c>
@@ -2951,8 +3175,14 @@
       <c r="I66">
         <v>23193.758999999995</v>
       </c>
-    </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>23080.187718000001</v>
+      </c>
+      <c r="K66">
+        <v>23193.758999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F67" s="3">
         <v>44866</v>
       </c>
@@ -2965,8 +3195,14 @@
       <c r="I67">
         <v>23562.170999999998</v>
       </c>
-    </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>23247.077603400001</v>
+      </c>
+      <c r="K67">
+        <v>23562.170999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F68" s="3">
         <v>44896</v>
       </c>
@@ -2979,8 +3215,14 @@
       <c r="I68">
         <v>34684.893000000004</v>
       </c>
-    </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>34373.363912999986</v>
+      </c>
+      <c r="K68">
+        <v>34684.893000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F69" s="3">
         <v>44927</v>
       </c>
@@ -2993,8 +3235,14 @@
       <c r="I69">
         <v>14802.943000000003</v>
       </c>
-    </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>14781.770047800001</v>
+      </c>
+      <c r="K69">
+        <v>14802.943000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F70" s="3">
         <v>44958</v>
       </c>
@@ -3007,8 +3255,14 @@
       <c r="I70">
         <v>25735.834999999999</v>
       </c>
-    </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>25546.49834939999</v>
+      </c>
+      <c r="K70">
+        <v>25735.834999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F71" s="3">
         <v>44986</v>
       </c>
@@ -3021,8 +3275,14 @@
       <c r="I71">
         <v>12409.181999999999</v>
       </c>
-    </row>
-    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>12218.6765106</v>
+      </c>
+      <c r="K71">
+        <v>12409.181999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F72" s="3">
         <v>45017</v>
       </c>
@@ -3035,8 +3295,14 @@
       <c r="I72">
         <v>60211.432000000001</v>
       </c>
-    </row>
-    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>60212.856526199997</v>
+      </c>
+      <c r="K72">
+        <v>60211.432000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F73" s="3">
         <v>45047</v>
       </c>
@@ -3049,8 +3315,14 @@
       <c r="I73">
         <v>50129.056999999993</v>
       </c>
-    </row>
-    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>49450.994233199992</v>
+      </c>
+      <c r="K73">
+        <v>50129.056999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F74" s="3">
         <v>45078</v>
       </c>
@@ -3063,8 +3335,14 @@
       <c r="I74">
         <v>39452.435999999987</v>
       </c>
-    </row>
-    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>39882.49382879999</v>
+      </c>
+      <c r="K74">
+        <v>39452.435999999987</v>
+      </c>
+    </row>
+    <row r="75" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F75" s="3">
         <v>45108</v>
       </c>
@@ -3077,8 +3355,14 @@
       <c r="I75">
         <v>37058.182000000001</v>
       </c>
-    </row>
-    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>36839.013157799993</v>
+      </c>
+      <c r="K75">
+        <v>37058.182000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F76" s="3">
         <v>45139</v>
       </c>
@@ -3091,8 +3375,14 @@
       <c r="I76">
         <v>26118.431000000011</v>
       </c>
-    </row>
-    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>25856.46820259999</v>
+      </c>
+      <c r="K76">
+        <v>26118.431000000011</v>
+      </c>
+    </row>
+    <row r="77" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F77" s="3">
         <v>45170</v>
       </c>
@@ -3105,8 +3395,14 @@
       <c r="I77">
         <v>27613.676800159996</v>
       </c>
-    </row>
-    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>27600.103742399999</v>
+      </c>
+      <c r="K77">
+        <v>27613.676800159996</v>
+      </c>
+    </row>
+    <row r="78" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F78" s="3">
         <v>45200</v>
       </c>
@@ -3119,8 +3415,14 @@
       <c r="I78">
         <v>12734.178334460003</v>
       </c>
-    </row>
-    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>12576.9275856</v>
+      </c>
+      <c r="K78">
+        <v>12734.178334460003</v>
+      </c>
+    </row>
+    <row r="79" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F79" s="3">
         <v>45231</v>
       </c>
@@ -3133,8 +3435,14 @@
       <c r="I79">
         <v>13363.032961739998</v>
       </c>
-    </row>
-    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>13249.557757799999</v>
+      </c>
+      <c r="K79">
+        <v>13363.032961739998</v>
+      </c>
+    </row>
+    <row r="80" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F80" s="3">
         <v>45261</v>
       </c>
@@ -3147,8 +3455,14 @@
       <c r="I80">
         <v>12457.98133624</v>
       </c>
-    </row>
-    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>12367.2680334</v>
+      </c>
+      <c r="K80">
+        <v>12457.98133624</v>
+      </c>
+    </row>
+    <row r="81" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F81" s="3">
         <v>45292</v>
       </c>
@@ -3161,8 +3475,14 @@
       <c r="I81">
         <v>19438.104000000003</v>
       </c>
-    </row>
-    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>19466.303</v>
+      </c>
+      <c r="K81">
+        <v>19438.104000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F82" s="3">
         <v>45323</v>
       </c>
@@ -3175,8 +3495,14 @@
       <c r="I82">
         <v>22324.816999999999</v>
       </c>
-    </row>
-    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>22389.966</v>
+      </c>
+      <c r="K82">
+        <v>22324.816999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F83" s="3">
         <v>45352</v>
       </c>
@@ -3189,8 +3515,14 @@
       <c r="I83">
         <v>106644.45800000003</v>
       </c>
-    </row>
-    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>106677.406</v>
+      </c>
+      <c r="K83">
+        <v>106644.45800000003</v>
+      </c>
+    </row>
+    <row r="84" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F84" s="3">
         <v>45383</v>
       </c>
@@ -3203,8 +3535,14 @@
       <c r="I84">
         <v>32059.226000000006</v>
       </c>
-    </row>
-    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>32096.75</v>
+      </c>
+      <c r="K84">
+        <v>32059.226000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F85" s="3">
         <v>45413</v>
       </c>
@@ -3217,8 +3555,14 @@
       <c r="I85">
         <v>102939.462</v>
       </c>
-    </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>103465.742</v>
+      </c>
+      <c r="K85">
+        <v>102939.462</v>
+      </c>
+    </row>
+    <row r="86" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F86" s="3">
         <v>45444</v>
       </c>
@@ -3231,8 +3575,14 @@
       <c r="I86">
         <v>126014.75300000001</v>
       </c>
-    </row>
-    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>126708.20600000001</v>
+      </c>
+      <c r="K86">
+        <v>126014.75300000001</v>
+      </c>
+    </row>
+    <row r="87" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F87" s="3">
         <v>45474</v>
       </c>
@@ -3245,8 +3595,14 @@
       <c r="I87">
         <v>104279.32500000001</v>
       </c>
-    </row>
-    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>104625.77099999999</v>
+      </c>
+      <c r="K87">
+        <v>104279.32500000001</v>
+      </c>
+    </row>
+    <row r="88" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F88" s="3">
         <v>45505</v>
       </c>
@@ -3259,8 +3615,14 @@
       <c r="I88">
         <v>72331.405999999988</v>
       </c>
-    </row>
-    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>72382.743000000002</v>
+      </c>
+      <c r="K88">
+        <v>72331.405999999988</v>
+      </c>
+    </row>
+    <row r="89" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F89" s="3">
         <v>45536</v>
       </c>
@@ -3273,8 +3635,14 @@
       <c r="I89">
         <v>72141.073000000004</v>
       </c>
-    </row>
-    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>72171.360000000001</v>
+      </c>
+      <c r="K89">
+        <v>72141.073000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F90" s="3">
         <v>45566</v>
       </c>
@@ -3287,8 +3655,14 @@
       <c r="I90">
         <v>37835.839999999997</v>
       </c>
-    </row>
-    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>37857.152999999998</v>
+      </c>
+      <c r="K90">
+        <v>37835.839999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F91" s="3">
         <v>45597</v>
       </c>
@@ -3301,8 +3675,14 @@
       <c r="I91">
         <v>136898.87399999998</v>
       </c>
-    </row>
-    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>136933.049</v>
+      </c>
+      <c r="K91">
+        <v>136898.87399999998</v>
+      </c>
+    </row>
+    <row r="92" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F92" s="3">
         <v>45627</v>
       </c>
@@ -3315,8 +3695,14 @@
       <c r="I92">
         <v>314882.29500000004</v>
       </c>
-    </row>
-    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>314903.723</v>
+      </c>
+      <c r="K92">
+        <v>314882.29500000004</v>
+      </c>
+    </row>
+    <row r="93" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F93" s="3">
         <v>45658</v>
       </c>
@@ -3329,8 +3715,14 @@
       <c r="I93">
         <v>484037.73300000001</v>
       </c>
-    </row>
-    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>484071.07699999999</v>
+      </c>
+      <c r="K93">
+        <v>484037.73300000001</v>
+      </c>
+    </row>
+    <row r="94" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F94" s="3">
         <v>45689</v>
       </c>
@@ -3343,8 +3735,14 @@
       <c r="I94">
         <v>321611.85600000003</v>
       </c>
-    </row>
-    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>321670.61499999999</v>
+      </c>
+      <c r="K94">
+        <v>321611.85600000003</v>
+      </c>
+    </row>
+    <row r="95" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F95" s="3">
         <v>45717</v>
       </c>
@@ -3357,8 +3755,14 @@
       <c r="I95">
         <v>358500.397</v>
       </c>
-    </row>
-    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>358500.397</v>
+      </c>
+      <c r="K95">
+        <v>358500.397</v>
+      </c>
+    </row>
+    <row r="96" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F96" s="3">
         <v>45748</v>
       </c>
@@ -3371,8 +3775,14 @@
       <c r="I96">
         <v>377088.61499999999</v>
       </c>
-    </row>
-    <row r="97" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>377332.364</v>
+      </c>
+      <c r="K96">
+        <v>377088.61499999999</v>
+      </c>
+    </row>
+    <row r="97" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F97" s="3">
         <v>45778</v>
       </c>
@@ -3385,8 +3795,14 @@
       <c r="I97">
         <v>340444.60900000005</v>
       </c>
-    </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>340540.51500000001</v>
+      </c>
+      <c r="K97">
+        <v>340444.60900000005</v>
+      </c>
+    </row>
+    <row r="98" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F98" s="3">
         <v>45809</v>
       </c>
@@ -3399,8 +3815,14 @@
       <c r="I98">
         <v>114792.17599999999</v>
       </c>
-    </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>115160.93799999999</v>
+      </c>
+      <c r="K98">
+        <v>114792.17599999999</v>
+      </c>
+    </row>
+    <row r="99" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F99" s="3">
         <v>45839</v>
       </c>
@@ -3413,8 +3835,14 @@
       <c r="I99">
         <v>76522.956000000006</v>
       </c>
-    </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>76610.122000000003</v>
+      </c>
+      <c r="K99">
+        <v>76522.956000000006</v>
+      </c>
+    </row>
+    <row r="100" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F100" s="3">
         <v>45870</v>
       </c>
@@ -3427,8 +3855,14 @@
       <c r="I100">
         <v>103681.29300000001</v>
       </c>
-    </row>
-    <row r="101" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>104498.439</v>
+      </c>
+      <c r="K100">
+        <v>103681.29300000001</v>
+      </c>
+    </row>
+    <row r="101" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F101" s="3">
         <v>45901</v>
       </c>
@@ -3439,6 +3873,12 @@
         <v>51896.036</v>
       </c>
       <c r="I101">
+        <v>51391.305999999997</v>
+      </c>
+      <c r="J101">
+        <v>51896.036</v>
+      </c>
+      <c r="K101">
         <v>51391.305999999997</v>
       </c>
     </row>

--- a/Models/SBO Exports.xlsx
+++ b/Models/SBO Exports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torem\Dropbox\RLC Documents\LLM Model and Documents\Projects\RLC-Agent\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4263C436-9531-44F6-9A93-4A15CD593808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C1FC78-E140-4D32-80C6-50DA98594E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25875" windowHeight="13500" xr2:uid="{043D2ADA-A7EB-413E-8C83-AD2B8ED6C80F}"/>
+    <workbookView xWindow="6525" yWindow="915" windowWidth="7830" windowHeight="6750" xr2:uid="{043D2ADA-A7EB-413E-8C83-AD2B8ED6C80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard Query_44780" sheetId="1" r:id="rId1"/>
@@ -1093,14 +1093,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C93804-4AC7-42CA-9D42-56850013B849}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:K101"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q16" activeCellId="1" sqref="Q10 Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2506,19 +2508,19 @@
       <c r="F33" s="3">
         <v>43831</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>124769.23727057999</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>124769.2593168</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>124593.28579522</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>124769.2593168</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="2">
         <v>124593.28579522</v>
       </c>
     </row>
@@ -2526,19 +2528,19 @@
       <c r="F34" s="3">
         <v>43862</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>395017.84489948204</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>395017.77655619988</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>395609.63645411999</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <v>395017.77655619988</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>395609.63645411999</v>
       </c>
     </row>
@@ -2546,19 +2548,19 @@
       <c r="F35" s="3">
         <v>43891</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>319872.42218068201</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>319872.35383739998</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>319777.46120518004</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>319872.35383739998</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <v>319777.46120518004</v>
       </c>
     </row>
@@ -2566,19 +2568,19 @@
       <c r="F36" s="3">
         <v>43922</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>229644.36905898599</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>229644.23016780001</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>229693.65665267996</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>229644.23016780001</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="2">
         <v>229693.65665267996</v>
       </c>
     </row>
@@ -2586,19 +2588,19 @@
       <c r="F37" s="3">
         <v>43952</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>357127.17193213193</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>357127.1587044</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>357123.91580712004</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>357127.1587044</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="2">
         <v>357123.91580712004</v>
       </c>
     </row>
@@ -2606,19 +2608,19 @@
       <c r="F38" s="3">
         <v>43983</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>166815.92253652198</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>166815.81010080001</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>166824.36481237999</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <v>166815.81010080001</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="2">
         <v>166824.36481237999</v>
       </c>
     </row>
@@ -2626,19 +2628,19 @@
       <c r="F39" s="3">
         <v>44013</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>164168.96958768601</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>164168.94092759999</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>164214.83768932</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>164168.94092759999</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="2">
         <v>164214.83768932</v>
       </c>
     </row>
@@ -2646,19 +2648,19 @@
       <c r="F40" s="3">
         <v>44044</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>199910.455775226</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>199910.2727916</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>200055.47289728001</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <v>199910.2727916</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <v>200055.47289728001</v>
       </c>
     </row>
@@ -2666,19 +2668,19 @@
       <c r="F41" s="3">
         <v>44075</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>177956.717463504</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>177956.64691559999</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>178051.98961439999</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <v>177956.64691559999</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="2">
         <v>178051.98961439999</v>
       </c>
     </row>
@@ -2686,19 +2688,19 @@
       <c r="F42" s="3">
         <v>44105</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>183886.36359344999</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>183886.19824679999</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>183898.48973562001</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <v>183886.19824679999</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="2">
         <v>183898.48973562001</v>
       </c>
     </row>
@@ -2706,19 +2708,19 @@
       <c r="F43" s="3">
         <v>44136</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>174525.86045626199</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>174525.8141592</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>175076.36770338</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <v>174525.8141592</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="2">
         <v>175076.36770338</v>
       </c>
     </row>
@@ -2726,19 +2728,19 @@
       <c r="F44" s="3">
         <v>44166</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>233906.25171526195</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>233906.2054182</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>234893.42488303999</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>233906.2054182</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>234893.42488303999</v>
       </c>
     </row>
@@ -2746,19 +2748,19 @@
       <c r="F45" s="3">
         <v>44197</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>327230.37235652393</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <v>327230.50022460002</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <v>327282.15523630008</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <v>327230.50022460002</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="2">
         <v>327282.15523630008</v>
       </c>
     </row>
@@ -2766,19 +2768,19 @@
       <c r="F46" s="3">
         <v>44228</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>254247.95278360799</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>254248.03215000001</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <v>255144.66737143998</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <v>254248.03215000001</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <v>255144.66737143998</v>
       </c>
     </row>
@@ -2786,19 +2788,19 @@
       <c r="F47" s="3">
         <v>44256</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>155458.657979982</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>155458.69986779999</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>154790.33631138</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <v>155458.69986779999</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="2">
         <v>154790.33631138</v>
       </c>
     </row>
@@ -2806,19 +2808,19 @@
       <c r="F48" s="3">
         <v>44287</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>128549.9655846</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <v>128549.9655846</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <v>130738.42815087998</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <v>128549.9655846</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="2">
         <v>130738.42815087998</v>
       </c>
     </row>
@@ -2826,19 +2828,19 @@
       <c r="F49" s="3">
         <v>44317</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>70421.495383764006</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>70421.579159399989</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <v>71295.19295228002</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <v>70421.579159399989</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="2">
         <v>71295.19295228002</v>
       </c>
     </row>
@@ -2846,19 +2848,19 @@
       <c r="F50" s="3">
         <v>44348</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>90855.497361383983</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>90855.338628599988</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>91233.981261939989</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>90855.338628599988</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <v>91233.981261939989</v>
       </c>
     </row>
@@ -2866,19 +2868,19 @@
       <c r="F51" s="3">
         <v>44378</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>29670.574493699998</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>29670.464262599999</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>35537.519799540001</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <v>29670.464262599999</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <v>35537.519799540001</v>
       </c>
     </row>
@@ -2886,19 +2888,19 @@
       <c r="F52" s="3">
         <v>44409</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>39709.389113981997</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>39709.431001800003</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <v>24694.848104960001</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <v>39709.431001800003</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="2">
         <v>24694.848104960001</v>
       </c>
     </row>
@@ -2906,19 +2908,19 @@
       <c r="F53" s="3">
         <v>44440</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>33297.345234972003</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>33297.287914799999</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <v>34430.668282340004</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="2">
         <v>33297.287914799999</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="2">
         <v>34430.668282340004</v>
       </c>
     </row>
@@ -2926,19 +2928,19 @@
       <c r="F54" s="3">
         <v>44470</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>56607.942407435999</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <v>56608.079093999993</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <v>57888.122706039998</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="2">
         <v>56608.079093999993</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="2">
         <v>57888.122706039998</v>
       </c>
     </row>
@@ -2946,19 +2948,19 @@
       <c r="F55" s="3">
         <v>44501</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>228750.16776191996</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>228750.2559468</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <v>229480.13700106001</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="2">
         <v>228750.2559468</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="2">
         <v>229480.13700106001</v>
       </c>
     </row>
@@ -2966,19 +2968,19 @@
       <c r="F56" s="3">
         <v>44531</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>164074.39130388596</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>164074.36264380001</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <v>164782.09964304004</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="2">
         <v>164074.36264380001</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="2">
         <v>164782.09964304004</v>
       </c>
     </row>
@@ -2986,19 +2988,19 @@
       <c r="F57" s="3">
         <v>44562</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>283810.34206652397</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>283810.24947239988</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <v>284021.65536557994</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="2">
         <v>283810.24947239988</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="2">
         <v>284021.65536557994</v>
       </c>
     </row>
@@ -3006,19 +3008,19 @@
       <c r="F58" s="3">
         <v>44593</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>234144.05326729201</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <v>234144.08413199999</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <v>235031.55534914002</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="2">
         <v>234144.08413199999</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="2">
         <v>235031.55534914002</v>
       </c>
     </row>
@@ -3026,19 +3028,19 @@
       <c r="F59" s="3">
         <v>44621</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>275593.02582583798</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <v>275592.96189179999</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <v>265804.34237829997</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="2">
         <v>275592.96189179999</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="2">
         <v>265804.34237829997</v>
       </c>
     </row>
@@ -3046,19 +3048,19 @@
       <c r="F60" s="3">
         <v>44652</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>157143.86883215999</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2">
         <v>157143.91292460001</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <v>167630.84787768003</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="2">
         <v>157143.91292460001</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="2">
         <v>167630.84787768003</v>
       </c>
     </row>
@@ -3066,19 +3068,19 @@
       <c r="F61" s="3">
         <v>44682</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>73388.52417304799</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <v>73388.559446999992</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <v>73906.267718579998</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="2">
         <v>73388.559446999992</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="2">
         <v>73906.267718579998</v>
       </c>
     </row>
@@ -3086,19 +3088,19 @@
       <c r="F62" s="3">
         <v>44713</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>72607.812407297999</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="2">
         <v>72607.902796799986</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <v>73057.696252859998</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="2">
         <v>72607.902796799986</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="2">
         <v>73057.696252859998</v>
       </c>
     </row>
@@ -3106,19 +3108,19 @@
       <c r="F63" s="3">
         <v>44743</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>117799.84731299401</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <v>117799.7877882</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <v>117925.5206316</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="2">
         <v>117799.7877882</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="2">
         <v>117925.5206316</v>
       </c>
     </row>
@@ -3126,19 +3128,19 @@
       <c r="F64" s="3">
         <v>44774</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>56546.182126727996</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="2">
         <v>56546.129215799992</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <v>56829.618505439998</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="2">
         <v>56546.129215799992</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="2">
         <v>56829.618505439998</v>
       </c>
     </row>
@@ -3146,19 +3148,19 @@
       <c r="F65" s="3">
         <v>44805</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>44700.011776979998</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <v>44699.813361</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <v>44888.512532819979</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <v>44699.813361</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <v>44888.512532819979</v>
       </c>
     </row>
@@ -3166,19 +3168,19 @@
       <c r="F66" s="3">
         <v>44835</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>23080.119374718</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <v>23080.187718000001</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <v>23193.758999999995</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <v>23080.187718000001</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="2">
         <v>23193.758999999995</v>
       </c>
     </row>
@@ -3186,19 +3188,19 @@
       <c r="F67" s="3">
         <v>44866</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <v>23246.954144568004</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <v>23247.077603400001</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <v>23562.170999999998</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="2">
         <v>23247.077603400001</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="2">
         <v>23562.170999999998</v>
       </c>
     </row>
@@ -3206,19 +3208,19 @@
       <c r="F68" s="3">
         <v>44896</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <v>34373.374936109998</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <v>34373.363912999986</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <v>34684.893000000004</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="2">
         <v>34373.363912999986</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <v>34684.893000000004</v>
       </c>
     </row>
@@ -3226,19 +3228,19 @@
       <c r="F69" s="3">
         <v>44927</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>14781.725955360002</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2">
         <v>14781.770047800001</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <v>14802.943000000003</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="2">
         <v>14781.770047800001</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="2">
         <v>14802.943000000003</v>
       </c>
     </row>
@@ -3246,19 +3248,19 @@
       <c r="F70" s="3">
         <v>44958</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <v>25546.507167888001</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="2">
         <v>25546.49834939999</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <v>25735.834999999999</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="2">
         <v>25546.49834939999</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="2">
         <v>25735.834999999999</v>
       </c>
     </row>
@@ -3266,19 +3268,19 @@
       <c r="F71" s="3">
         <v>44986</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <v>12218.597144208001</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2">
         <v>12218.6765106</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <v>12409.181999999999</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="2">
         <v>12218.6765106</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="2">
         <v>12409.181999999999</v>
       </c>
     </row>
@@ -3286,19 +3288,19 @@
       <c r="F72" s="3">
         <v>45017</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <v>60212.856526199997</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="2">
         <v>60212.856526199997</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="2">
         <v>60211.432000000001</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="2">
         <v>60212.856526199997</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="2">
         <v>60211.432000000001</v>
       </c>
     </row>
@@ -3306,19 +3308,19 @@
       <c r="F73" s="3">
         <v>45047</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <v>49450.912662185998</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="2">
         <v>49450.994233199992</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="2">
         <v>50129.056999999993</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="2">
         <v>49450.994233199992</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="2">
         <v>50129.056999999993</v>
       </c>
     </row>
@@ -3326,19 +3328,19 @@
       <c r="F74" s="3">
         <v>45078</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <v>39882.612878388005</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <v>39882.49382879999</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <v>39452.435999999987</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="2">
         <v>39882.49382879999</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="2">
         <v>39452.435999999987</v>
       </c>
     </row>
@@ -3346,19 +3348,19 @@
       <c r="F75" s="3">
         <v>45108</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <v>36839.017567044</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="2">
         <v>36839.013157799993</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <v>37058.182000000001</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="2">
         <v>36839.013157799993</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="2">
         <v>37058.182000000001</v>
       </c>
     </row>
@@ -3366,19 +3368,19 @@
       <c r="F76" s="3">
         <v>45139</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="2">
         <v>25856.499067308003</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2">
         <v>25856.46820259999</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <v>26118.431000000011</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="2">
         <v>25856.46820259999</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="2">
         <v>26118.431000000011</v>
       </c>
     </row>
@@ -3386,19 +3388,19 @@
       <c r="F77" s="3">
         <v>45170</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <v>27600.015557520001</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="2">
         <v>27600.103742399999</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <v>27613.676800159996</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="2">
         <v>27600.103742399999</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="2">
         <v>27613.676800159996</v>
       </c>
     </row>
@@ -3406,19 +3408,19 @@
       <c r="F78" s="3">
         <v>45200</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <v>12576.954041064002</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2">
         <v>12576.9275856</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <v>12734.178334460003</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="2">
         <v>12576.9275856</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="2">
         <v>12734.178334460003</v>
       </c>
     </row>
@@ -3426,19 +3428,19 @@
       <c r="F79" s="3">
         <v>45231</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <v>13249.557757800001</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2">
         <v>13249.557757799999</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <v>13363.032961739998</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="2">
         <v>13249.557757799999</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="2">
         <v>13363.032961739998</v>
       </c>
     </row>
@@ -3446,19 +3448,19 @@
       <c r="F80" s="3">
         <v>45261</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>12367.111505238001</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <v>12367.2680334</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <v>12457.98133624</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="2">
         <v>12367.2680334</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="2">
         <v>12457.98133624</v>
       </c>
     </row>
@@ -3466,19 +3468,19 @@
       <c r="F81" s="3">
         <v>45292</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="2">
         <v>11247.216440166001</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="2">
         <v>19466.303</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <v>19438.104000000003</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="2">
         <v>19466.303</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="2">
         <v>19438.104000000003</v>
       </c>
     </row>
@@ -3486,19 +3488,19 @@
       <c r="F82" s="3">
         <v>45323</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <v>13754.555086986</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="2">
         <v>22389.966</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="2">
         <v>22324.816999999999</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="2">
         <v>22389.966</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="2">
         <v>22324.816999999999</v>
       </c>
     </row>
@@ -3506,19 +3508,19 @@
       <c r="F83" s="3">
         <v>45352</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <v>98364.722084999987</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="2">
         <v>106677.406</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <v>106644.45800000003</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="2">
         <v>106677.406</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="2">
         <v>106644.45800000003</v>
       </c>
     </row>
@@ -3526,19 +3528,19 @@
       <c r="F84" s="3">
         <v>45383</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <v>21856.386613445997</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="2">
         <v>32096.75</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <v>32059.226000000006</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="2">
         <v>32096.75</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="2">
         <v>32059.226000000006</v>
       </c>
     </row>
@@ -3546,19 +3548,19 @@
       <c r="F85" s="3">
         <v>45413</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="2">
         <v>93598.00965081001</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="2">
         <v>103465.742</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <v>102939.462</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="2">
         <v>103465.742</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="2">
         <v>102939.462</v>
       </c>
     </row>
@@ -3566,19 +3568,19 @@
       <c r="F86" s="3">
         <v>45444</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="2">
         <v>114930.17683585199</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="2">
         <v>126708.20600000001</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="2">
         <v>126014.75300000001</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="2">
         <v>126708.20600000001</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="2">
         <v>126014.75300000001</v>
       </c>
     </row>
@@ -3586,19 +3588,19 @@
       <c r="F87" s="3">
         <v>45474</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="2">
         <v>96826.189143725991</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="2">
         <v>104625.77099999999</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="2">
         <v>104279.32500000001</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="2">
         <v>104625.77099999999</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="2">
         <v>104279.32500000001</v>
       </c>
     </row>
@@ -3606,19 +3608,19 @@
       <c r="F88" s="3">
         <v>45505</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="2">
         <v>63456.534511776001</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="2">
         <v>72382.743000000002</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="2">
         <v>72331.405999999988</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="2">
         <v>72382.743000000002</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="2">
         <v>72331.405999999988</v>
       </c>
     </row>
@@ -3626,19 +3628,19 @@
       <c r="F89" s="3">
         <v>45536</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="2">
         <v>60056.425367568001</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="2">
         <v>72171.360000000001</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="2">
         <v>72141.073000000004</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="2">
         <v>72171.360000000001</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="2">
         <v>72141.073000000004</v>
       </c>
     </row>
@@ -3646,19 +3648,19 @@
       <c r="F90" s="3">
         <v>45566</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="2">
         <v>29588.031241398003</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="2">
         <v>37857.152999999998</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="2">
         <v>37835.839999999997</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="2">
         <v>37857.152999999998</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="2">
         <v>37835.839999999997</v>
       </c>
     </row>
@@ -3666,19 +3668,19 @@
       <c r="F91" s="3">
         <v>45597</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="2">
         <v>128149.00436759401</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="2">
         <v>136933.049</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="2">
         <v>136898.87399999998</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="2">
         <v>136933.049</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="2">
         <v>136898.87399999998</v>
       </c>
     </row>
@@ -3686,19 +3688,19 @@
       <c r="F92" s="3">
         <v>45627</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="2">
         <v>279109.78152006597</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="2">
         <v>314903.723</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="2">
         <v>314882.29500000004</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="2">
         <v>314903.723</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="2">
         <v>314882.29500000004</v>
       </c>
     </row>
@@ -3706,19 +3708,19 @@
       <c r="F93" s="3">
         <v>45658</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <v>468673.98813710996</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="2">
         <v>484071.07699999999</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="2">
         <v>484037.73300000001</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="2">
         <v>484071.07699999999</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="2">
         <v>484037.73300000001</v>
       </c>
     </row>
@@ -3726,19 +3728,19 @@
       <c r="F94" s="3">
         <v>45689</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="2">
         <v>300094.95222541795</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="2">
         <v>321670.61499999999</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="2">
         <v>321611.85600000003</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="2">
         <v>321670.61499999999</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="2">
         <v>321611.85600000003</v>
       </c>
     </row>
@@ -3746,19 +3748,19 @@
       <c r="F95" s="3">
         <v>45717</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="2">
         <v>343326.16986884997</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="2">
         <v>358500.397</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="2">
         <v>358500.397</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="2">
         <v>358500.397</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="2">
         <v>358500.397</v>
       </c>
     </row>
@@ -3766,19 +3768,19 @@
       <c r="F96" s="3">
         <v>45748</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="2">
         <v>350427.33890186402</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="2">
         <v>377332.364</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="2">
         <v>377088.61499999999</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="2">
         <v>377332.364</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="2">
         <v>377088.61499999999</v>
       </c>
     </row>
@@ -3786,19 +3788,19 @@
       <c r="F97" s="3">
         <v>45778</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <v>312898.47526942199</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="2">
         <v>340540.51500000001</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="2">
         <v>340444.60900000005</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="2">
         <v>340540.51500000001</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="2">
         <v>340444.60900000005</v>
       </c>
     </row>
@@ -3806,19 +3808,19 @@
       <c r="F98" s="3">
         <v>45809</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="2">
         <v>93330.262718154016</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="2">
         <v>115160.93799999999</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="2">
         <v>114792.17599999999</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="2">
         <v>115160.93799999999</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="2">
         <v>114792.17599999999</v>
       </c>
     </row>
@@ -3826,19 +3828,19 @@
       <c r="F99" s="3">
         <v>45839</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <v>62740.305734903995</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="2">
         <v>76610.122000000003</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="2">
         <v>76522.956000000006</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="2">
         <v>76610.122000000003</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="2">
         <v>76522.956000000006</v>
       </c>
     </row>
@@ -3846,19 +3848,19 @@
       <c r="F100" s="3">
         <v>45870</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <v>80722.911348953989</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2">
         <v>104498.439</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="2">
         <v>103681.29300000001</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="2">
         <v>104498.439</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="2">
         <v>103681.29300000001</v>
       </c>
     </row>
@@ -3866,19 +3868,19 @@
       <c r="F101" s="3">
         <v>45901</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <v>38361.110642063999</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="2">
         <v>51896.036</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="2">
         <v>51391.305999999997</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="2">
         <v>51896.036</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="2">
         <v>51391.305999999997</v>
       </c>
     </row>
